--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD016556-BA1E-4FFF-8326-1DBA960DDABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587355E-679A-4211-B2C6-3773E2437975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1235">
   <si>
     <t>japanese</t>
   </si>
@@ -249,9 +249,6 @@
     <t xml:space="preserve">gặp gỡ  </t>
   </si>
   <si>
-    <t>イ</t>
-  </si>
-  <si>
     <t>NHÂN ĐỨNG</t>
   </si>
   <si>
@@ -3483,9 +3480,6 @@
     <t>月</t>
   </si>
   <si>
-    <t>hai</t>
-  </si>
-  <si>
     <t>書</t>
   </si>
   <si>
@@ -3499,6 +3493,243 @@
   </si>
   <si>
     <t>総まとめー</t>
+  </si>
+  <si>
+    <t>亻</t>
+  </si>
+  <si>
+    <t>儿</t>
+  </si>
+  <si>
+    <t>NHÂN đi</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>BÁT</t>
+  </si>
+  <si>
+    <t>tám</t>
+  </si>
+  <si>
+    <t>刂</t>
+  </si>
+  <si>
+    <t>BỘ đao</t>
+  </si>
+  <si>
+    <t>匕</t>
+  </si>
+  <si>
+    <t>Bộ truỷ</t>
+  </si>
+  <si>
+    <t>又</t>
+  </si>
+  <si>
+    <t>Bộ hựu</t>
+  </si>
+  <si>
+    <t>夂</t>
+  </si>
+  <si>
+    <t>BỘ TRUY</t>
+  </si>
+  <si>
+    <t>宀</t>
+  </si>
+  <si>
+    <t>Bộ miên</t>
+  </si>
+  <si>
+    <t>尸</t>
+  </si>
+  <si>
+    <t>BỘ THI</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>BỘ NGHIỄM</t>
+  </si>
+  <si>
+    <t>廴</t>
+  </si>
+  <si>
+    <t>BỘ DẪn</t>
+  </si>
+  <si>
+    <t>彡</t>
+  </si>
+  <si>
+    <t>BỘ SAM</t>
+  </si>
+  <si>
+    <t>彳</t>
+  </si>
+  <si>
+    <t>BÔ sách</t>
+  </si>
+  <si>
+    <t>艹</t>
+  </si>
+  <si>
+    <t>BỘ THẢO</t>
+  </si>
+  <si>
+    <t>BỘ SƯỚC</t>
+  </si>
+  <si>
+    <t>⻌</t>
+  </si>
+  <si>
+    <t>BỘ ẤP</t>
+  </si>
+  <si>
+    <t>_⻏</t>
+  </si>
+  <si>
+    <t>⻏_</t>
+  </si>
+  <si>
+    <t>BỘ PHỤ</t>
+  </si>
+  <si>
+    <t>忄</t>
+  </si>
+  <si>
+    <t>BỘ TÂM</t>
+  </si>
+  <si>
+    <t>扌</t>
+  </si>
+  <si>
+    <t>BỘ THỦ</t>
+  </si>
+  <si>
+    <t>攵</t>
+  </si>
+  <si>
+    <t>BỘ PHỘC</t>
+  </si>
+  <si>
+    <t>THƯ</t>
+  </si>
+  <si>
+    <t>viết</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>hữu</t>
+  </si>
+  <si>
+    <t>sở hữu</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>kỷ</t>
+  </si>
+  <si>
+    <t>cái bàn</t>
+  </si>
+  <si>
+    <t>歹</t>
+  </si>
+  <si>
+    <t>bộ ngạt</t>
+  </si>
+  <si>
+    <t>氵</t>
+  </si>
+  <si>
+    <t>3 chấm thuỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BỘ THUỶ</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>hán</t>
+  </si>
+  <si>
+    <t>hán tự</t>
+  </si>
+  <si>
+    <t>牜</t>
+  </si>
+  <si>
+    <t>BỘ NGƯU</t>
+  </si>
+  <si>
+    <t>灬</t>
+  </si>
+  <si>
+    <t>HOẢ</t>
+  </si>
+  <si>
+    <t>4 chấm hoả</t>
+  </si>
+  <si>
+    <t>疒</t>
+  </si>
+  <si>
+    <t>bộ nạch</t>
+  </si>
+  <si>
+    <t>礻</t>
+  </si>
+  <si>
+    <t>BỘ THỊ</t>
+  </si>
+  <si>
+    <t>禾</t>
+  </si>
+  <si>
+    <t>BỘ hoà</t>
+  </si>
+  <si>
+    <t>⺮</t>
+  </si>
+  <si>
+    <t>bộ trúc</t>
+  </si>
+  <si>
+    <t>耂</t>
+  </si>
+  <si>
+    <t>Bộ lão</t>
+  </si>
+  <si>
+    <t>酉</t>
+  </si>
+  <si>
+    <t>BỘ DẬU</t>
+  </si>
+  <si>
+    <t>隹</t>
+  </si>
+  <si>
+    <t>bộ chuy</t>
+  </si>
+  <si>
+    <t>頁</t>
+  </si>
+  <si>
+    <t>BỘ HIỆT</t>
+  </si>
+  <si>
+    <t>飠</t>
+  </si>
+  <si>
+    <t>bộ thực</t>
   </si>
 </sst>
 </file>
@@ -3552,7 +3783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3563,6 +3794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3849,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,7 +4109,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4133,4175 +4365,4560 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>81</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
         <v>104</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
         <v>110</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>111</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>122</v>
+        <v>1157</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>1158</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>143</v>
+        <v>1159</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>1160</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>172</v>
+        <v>1162</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>1163</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>195</v>
+        <v>1164</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>1165</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>231</v>
+        <v>1166</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>1167</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D89" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D101" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D103" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D104" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C106" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D106" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>311</v>
+        <v>1168</v>
       </c>
       <c r="C107" t="s">
-        <v>312</v>
+        <v>1169</v>
       </c>
       <c r="D107" t="s">
-        <v>313</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C114" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="D117" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C118" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C120" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D120" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C123" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C124" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C125" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C126" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="D127" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D128" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C129" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C130" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D130" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>378</v>
+        <v>1170</v>
       </c>
       <c r="C131" t="s">
-        <v>379</v>
+        <v>1171</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D132" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C133" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C135" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C136" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="D136" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="D137" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C138" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D138" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C139" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D139" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="C140" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="D140" t="s">
-        <v>405</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>141</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>388</v>
       </c>
       <c r="D142" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C143" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D143" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C144" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>414</v>
+        <v>1172</v>
       </c>
       <c r="C145" t="s">
-        <v>415</v>
+        <v>1173</v>
       </c>
       <c r="D145" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C146" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D146" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C147" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D147" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="C148" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C149" t="s">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="D149" t="s">
-        <v>427</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>149</v>
       </c>
       <c r="D150" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C151" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C152" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="D152" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C153" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="D153" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C154" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="D154" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C155" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C156" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C157" t="s">
-        <v>449</v>
+        <v>305</v>
       </c>
       <c r="D157" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C158" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="D158" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C159" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="D159" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>456</v>
+        <v>1174</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>1175</v>
       </c>
       <c r="D160" t="s">
-        <v>458</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="C161" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D161" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="C162" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C163" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="D163" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C164" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="D164" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C165" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D165" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>473</v>
+        <v>1176</v>
       </c>
       <c r="C166" t="s">
-        <v>474</v>
+        <v>1177</v>
       </c>
       <c r="D166" t="s">
-        <v>475</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C167" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="D167" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="D168" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="D169" t="s">
-        <v>484</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C170" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="D170" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="C171" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="D171" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C172" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="D172" t="s">
-        <v>493</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="C173" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D173" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C174" t="s">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="D174" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>499</v>
+        <v>1178</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>1179</v>
       </c>
       <c r="D175" t="s">
-        <v>501</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="C176" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="D176" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>505</v>
+        <v>1180</v>
       </c>
       <c r="C177" t="s">
-        <v>506</v>
+        <v>1181</v>
       </c>
       <c r="D177" t="s">
-        <v>507</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="D178" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="D179" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="C180" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="D180" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="C181" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="D181" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>520</v>
+        <v>1182</v>
       </c>
       <c r="C182" t="s">
-        <v>521</v>
+        <v>1183</v>
       </c>
       <c r="D182" t="s">
-        <v>522</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="D183" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="C184" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="D184" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="C185" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="D185" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="C186" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="D186" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
       <c r="C187" t="s">
-        <v>536</v>
+        <v>89</v>
       </c>
       <c r="D187" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="C188" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="D188" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="C189" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="D189" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>544</v>
+        <v>1185</v>
       </c>
       <c r="C190" t="s">
-        <v>545</v>
+        <v>1184</v>
       </c>
       <c r="D190" t="s">
-        <v>546</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="C191" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="D191" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="C192" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="D192" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="C193" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="D193" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="C194" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="D194" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="C195" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="D195" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="C196" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="D196" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="C197" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="D197" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="C198" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="D198" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="C199" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>530</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>573</v>
+        <v>531</v>
       </c>
       <c r="C200" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="D200" t="s">
-        <v>575</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>576</v>
+      <c r="B201" s="4" t="s">
+        <v>1187</v>
       </c>
       <c r="C201" t="s">
-        <v>577</v>
+        <v>1186</v>
       </c>
       <c r="D201" t="s">
-        <v>578</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>579</v>
+        <v>534</v>
       </c>
       <c r="C202" t="s">
-        <v>223</v>
+        <v>535</v>
       </c>
       <c r="D202" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="C203" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="D203" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>584</v>
+      <c r="B204" s="4" t="s">
+        <v>1188</v>
       </c>
       <c r="C204" t="s">
-        <v>585</v>
+        <v>1189</v>
       </c>
       <c r="D204" t="s">
-        <v>586</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="C205" t="s">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="D205" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>590</v>
+        <v>1190</v>
       </c>
       <c r="C206" t="s">
-        <v>533</v>
+        <v>1191</v>
       </c>
       <c r="D206" t="s">
-        <v>591</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>592</v>
+        <v>543</v>
       </c>
       <c r="C207" t="s">
-        <v>199</v>
+        <v>544</v>
       </c>
       <c r="D207" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="C208" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="D208" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>225</v>
+        <v>549</v>
       </c>
       <c r="C209" t="s">
-        <v>226</v>
+        <v>550</v>
       </c>
       <c r="D209" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="C210" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="D210" t="s">
-        <v>600</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="C211" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="D211" t="s">
-        <v>603</v>
+        <v>557</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>604</v>
+        <v>558</v>
       </c>
       <c r="C212" t="s">
-        <v>605</v>
+        <v>559</v>
       </c>
       <c r="D212" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="C213" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="D213" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>610</v>
+        <v>564</v>
       </c>
       <c r="C214" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="D214" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>613</v>
+        <v>567</v>
       </c>
       <c r="C215" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="D215" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="C216" t="s">
-        <v>617</v>
+        <v>571</v>
       </c>
       <c r="D216" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="C217" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="D217" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>621</v>
+        <v>575</v>
       </c>
       <c r="C218" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="D218" t="s">
-        <v>623</v>
+        <v>577</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>624</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
-        <v>625</v>
+        <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="C220" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="D220" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>630</v>
+        <v>1192</v>
       </c>
       <c r="C221" t="s">
-        <v>631</v>
+        <v>1193</v>
       </c>
       <c r="D221" t="s">
-        <v>632</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="C222" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="D222" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="C223" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="D223" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="C224" t="s">
-        <v>640</v>
+        <v>532</v>
       </c>
       <c r="D224" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="C225" t="s">
-        <v>643</v>
+        <v>198</v>
       </c>
       <c r="D225" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="C226" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="D226" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>648</v>
+        <v>224</v>
       </c>
       <c r="C227" t="s">
-        <v>649</v>
+        <v>225</v>
       </c>
       <c r="D227" t="s">
-        <v>650</v>
+        <v>596</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>651</v>
+        <v>1194</v>
       </c>
       <c r="C228" t="s">
-        <v>99</v>
+        <v>1195</v>
       </c>
       <c r="D228" t="s">
-        <v>652</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="C229" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="D229" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="C230" t="s">
-        <v>657</v>
+        <v>601</v>
       </c>
       <c r="D230" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>659</v>
+        <v>603</v>
       </c>
       <c r="C231" t="s">
-        <v>660</v>
+        <v>604</v>
       </c>
       <c r="D231" t="s">
-        <v>307</v>
+        <v>605</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>661</v>
+        <v>606</v>
       </c>
       <c r="C232" t="s">
-        <v>662</v>
+        <v>607</v>
       </c>
       <c r="D232" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>1156</v>
+        <v>609</v>
       </c>
       <c r="C233" t="s">
-        <v>1155</v>
+        <v>610</v>
       </c>
       <c r="D233" t="s">
-        <v>1154</v>
+        <v>611</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B234" s="2" t="s">
-        <v>1153</v>
+      <c r="B234" t="s">
+        <v>612</v>
       </c>
       <c r="C234" t="s">
-        <v>51</v>
+        <v>613</v>
       </c>
       <c r="D234" t="s">
-        <v>1152</v>
+        <v>614</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>1151</v>
+        <v>615</v>
       </c>
       <c r="C235" t="s">
-        <v>1150</v>
+        <v>616</v>
       </c>
       <c r="D235" t="s">
-        <v>1149</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1148</v>
+        <v>617</v>
       </c>
       <c r="C236" t="s">
-        <v>1147</v>
+        <v>618</v>
       </c>
       <c r="D236" t="s">
-        <v>1146</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>1145</v>
+        <v>620</v>
       </c>
       <c r="C237" t="s">
-        <v>1144</v>
+        <v>621</v>
       </c>
       <c r="D237" t="s">
-        <v>1143</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1142</v>
+        <v>623</v>
       </c>
       <c r="C238" t="s">
-        <v>1141</v>
+        <v>624</v>
       </c>
       <c r="D238" t="s">
-        <v>1140</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>1139</v>
+        <v>626</v>
       </c>
       <c r="C239" t="s">
-        <v>1138</v>
+        <v>627</v>
       </c>
       <c r="D239" t="s">
-        <v>1137</v>
+        <v>628</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>1136</v>
+        <v>629</v>
       </c>
       <c r="C240" t="s">
-        <v>1135</v>
+        <v>630</v>
       </c>
       <c r="D240" t="s">
-        <v>1134</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>1133</v>
+        <v>632</v>
       </c>
       <c r="C241" t="s">
-        <v>1132</v>
+        <v>633</v>
       </c>
       <c r="D241" t="s">
-        <v>1131</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>1130</v>
+        <v>635</v>
       </c>
       <c r="C242" t="s">
-        <v>1129</v>
+        <v>636</v>
       </c>
       <c r="D242" t="s">
-        <v>1128</v>
+        <v>637</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>1127</v>
+        <v>638</v>
       </c>
       <c r="C243" t="s">
-        <v>1126</v>
+        <v>639</v>
       </c>
       <c r="D243" t="s">
-        <v>1125</v>
+        <v>640</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1124</v>
+        <v>641</v>
       </c>
       <c r="C244" t="s">
-        <v>1123</v>
+        <v>642</v>
       </c>
       <c r="D244" t="s">
-        <v>1122</v>
+        <v>643</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>1121</v>
+        <v>644</v>
       </c>
       <c r="C245" t="s">
-        <v>1120</v>
+        <v>645</v>
       </c>
       <c r="D245" t="s">
-        <v>1119</v>
+        <v>646</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>1118</v>
+        <v>647</v>
       </c>
       <c r="C246" t="s">
-        <v>1117</v>
+        <v>648</v>
       </c>
       <c r="D246" t="s">
-        <v>1116</v>
+        <v>649</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>1115</v>
+        <v>650</v>
       </c>
       <c r="C247" t="s">
-        <v>1114</v>
+        <v>98</v>
       </c>
       <c r="D247" t="s">
-        <v>1113</v>
+        <v>651</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>1112</v>
+        <v>652</v>
       </c>
       <c r="C248" t="s">
-        <v>1111</v>
+        <v>653</v>
       </c>
       <c r="D248" t="s">
-        <v>1110</v>
+        <v>654</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>1109</v>
+        <v>655</v>
       </c>
       <c r="C249" t="s">
-        <v>1108</v>
+        <v>656</v>
       </c>
       <c r="D249" t="s">
-        <v>1107</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>1106</v>
+        <v>658</v>
       </c>
       <c r="C250" t="s">
-        <v>1105</v>
+        <v>659</v>
       </c>
       <c r="D250" t="s">
-        <v>1104</v>
+        <v>306</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>1103</v>
+        <v>660</v>
       </c>
       <c r="C251" t="s">
-        <v>1102</v>
+        <v>661</v>
       </c>
       <c r="D251" t="s">
-        <v>1101</v>
+        <v>662</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1100</v>
+        <v>1154</v>
       </c>
       <c r="C252" t="s">
-        <v>1039</v>
+        <v>1153</v>
       </c>
       <c r="D252" t="s">
-        <v>1099</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>1098</v>
+      <c r="B253" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="C253" t="s">
-        <v>1097</v>
+        <v>1196</v>
       </c>
       <c r="D253" t="s">
-        <v>1096</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1095</v>
+        <v>1150</v>
       </c>
       <c r="C254" t="s">
-        <v>900</v>
+        <v>1149</v>
       </c>
       <c r="D254" t="s">
-        <v>1094</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>1093</v>
+        <v>1198</v>
       </c>
       <c r="C255" t="s">
-        <v>1092</v>
+        <v>1199</v>
       </c>
       <c r="D255" t="s">
-        <v>1091</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1090</v>
+        <v>1147</v>
       </c>
       <c r="C256" t="s">
-        <v>1089</v>
+        <v>1146</v>
       </c>
       <c r="D256" t="s">
-        <v>1088</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>1087</v>
+        <v>1144</v>
       </c>
       <c r="C257" t="s">
-        <v>1086</v>
+        <v>1143</v>
       </c>
       <c r="D257" t="s">
-        <v>1085</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>1084</v>
+        <v>1141</v>
       </c>
       <c r="C258" t="s">
-        <v>1083</v>
+        <v>1140</v>
       </c>
       <c r="D258" t="s">
-        <v>1082</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1081</v>
+        <v>1138</v>
       </c>
       <c r="C259" t="s">
-        <v>1080</v>
+        <v>1137</v>
       </c>
       <c r="D259" t="s">
-        <v>1079</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1078</v>
+        <v>1135</v>
       </c>
       <c r="C260" t="s">
-        <v>1077</v>
+        <v>1134</v>
       </c>
       <c r="D260" t="s">
-        <v>1076</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>1075</v>
+        <v>1201</v>
       </c>
       <c r="C261" t="s">
-        <v>1074</v>
+        <v>1202</v>
       </c>
       <c r="D261" t="s">
-        <v>1073</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1072</v>
+        <v>1132</v>
       </c>
       <c r="C262" t="s">
-        <v>1071</v>
+        <v>1131</v>
       </c>
       <c r="D262" t="s">
-        <v>920</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1070</v>
+        <v>1129</v>
       </c>
       <c r="C263" t="s">
-        <v>1069</v>
+        <v>1128</v>
       </c>
       <c r="D263" t="s">
-        <v>1068</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>1067</v>
+        <v>1126</v>
       </c>
       <c r="C264" t="s">
-        <v>1066</v>
+        <v>1125</v>
       </c>
       <c r="D264" t="s">
-        <v>1065</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>1064</v>
+        <v>1123</v>
       </c>
       <c r="C265" t="s">
-        <v>1063</v>
+        <v>1122</v>
       </c>
       <c r="D265" t="s">
-        <v>1062</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>1061</v>
+        <v>1120</v>
       </c>
       <c r="C266" t="s">
-        <v>1060</v>
+        <v>1119</v>
       </c>
       <c r="D266" t="s">
-        <v>1059</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>1058</v>
+        <v>1117</v>
       </c>
       <c r="C267" t="s">
-        <v>1057</v>
+        <v>1116</v>
       </c>
       <c r="D267" t="s">
-        <v>1056</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>1055</v>
+        <v>1114</v>
       </c>
       <c r="C268" t="s">
-        <v>1054</v>
+        <v>1113</v>
       </c>
       <c r="D268" t="s">
-        <v>1053</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1052</v>
+        <v>1111</v>
       </c>
       <c r="C269" t="s">
-        <v>1051</v>
+        <v>1110</v>
       </c>
       <c r="D269" t="s">
-        <v>1050</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="C270" t="s">
-        <v>1048</v>
+        <v>1107</v>
       </c>
       <c r="D270" t="s">
-        <v>1047</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>1046</v>
+        <v>1105</v>
       </c>
       <c r="C271" t="s">
-        <v>1045</v>
+        <v>1104</v>
       </c>
       <c r="D271" t="s">
-        <v>1044</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1043</v>
+        <v>1102</v>
       </c>
       <c r="C272" t="s">
-        <v>1042</v>
+        <v>1101</v>
       </c>
       <c r="D272" t="s">
-        <v>1041</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>1040</v>
+        <v>1099</v>
       </c>
       <c r="C273" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D273" t="s">
-        <v>1038</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>1037</v>
+        <v>1097</v>
       </c>
       <c r="C274" t="s">
-        <v>930</v>
+        <v>1096</v>
       </c>
       <c r="D274" t="s">
-        <v>896</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>1036</v>
+        <v>1094</v>
       </c>
       <c r="C275" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="D275" t="s">
-        <v>1035</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
       <c r="C276" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
       <c r="D276" t="s">
-        <v>1032</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>1031</v>
+        <v>1089</v>
       </c>
       <c r="C277" t="s">
-        <v>1030</v>
+        <v>1088</v>
       </c>
       <c r="D277" t="s">
-        <v>1029</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>1028</v>
+        <v>1204</v>
       </c>
       <c r="C278" t="s">
-        <v>1027</v>
+        <v>1205</v>
       </c>
       <c r="D278" t="s">
-        <v>1026</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B279" s="2" t="s">
-        <v>1025</v>
+      <c r="B279" t="s">
+        <v>1086</v>
       </c>
       <c r="C279" t="s">
-        <v>1024</v>
+        <v>1085</v>
       </c>
       <c r="D279" t="s">
-        <v>1023</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>1022</v>
+        <v>1083</v>
       </c>
       <c r="C280" t="s">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="D280" t="s">
-        <v>1020</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="C281" t="s">
-        <v>1018</v>
+        <v>1079</v>
       </c>
       <c r="D281" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>1016</v>
+        <v>1077</v>
       </c>
       <c r="C282" t="s">
-        <v>1015</v>
+        <v>1076</v>
       </c>
       <c r="D282" t="s">
-        <v>1014</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>1013</v>
+        <v>1074</v>
       </c>
       <c r="C283" t="s">
-        <v>1012</v>
+        <v>1073</v>
       </c>
       <c r="D283" t="s">
-        <v>1011</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1010</v>
+        <v>1071</v>
       </c>
       <c r="C284" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="D284" t="s">
-        <v>1008</v>
+        <v>919</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>1007</v>
+        <v>1069</v>
       </c>
       <c r="C285" t="s">
-        <v>1006</v>
+        <v>1068</v>
       </c>
       <c r="D285" t="s">
-        <v>1005</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>1004</v>
+        <v>1206</v>
       </c>
       <c r="C286" t="s">
-        <v>1003</v>
+        <v>1208</v>
       </c>
       <c r="D286" t="s">
-        <v>1002</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B287" s="2" t="s">
-        <v>1001</v>
+      <c r="B287" t="s">
+        <v>1066</v>
       </c>
       <c r="C287" t="s">
-        <v>1000</v>
+        <v>1065</v>
       </c>
       <c r="D287" t="s">
-        <v>360</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>999</v>
+        <v>1063</v>
       </c>
       <c r="C288" t="s">
-        <v>998</v>
+        <v>1062</v>
       </c>
       <c r="D288" t="s">
-        <v>997</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>996</v>
+        <v>1060</v>
       </c>
       <c r="C289" t="s">
-        <v>995</v>
+        <v>1059</v>
       </c>
       <c r="D289" t="s">
-        <v>993</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>994</v>
+        <v>1057</v>
       </c>
       <c r="C290" t="s">
-        <v>993</v>
+        <v>1056</v>
       </c>
       <c r="D290" t="s">
-        <v>992</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>991</v>
+        <v>1054</v>
       </c>
       <c r="C291" t="s">
-        <v>990</v>
+        <v>1053</v>
       </c>
       <c r="D291" t="s">
-        <v>989</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>988</v>
+        <v>1051</v>
       </c>
       <c r="C292" t="s">
-        <v>987</v>
+        <v>1050</v>
       </c>
       <c r="D292" t="s">
-        <v>986</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>985</v>
+        <v>1048</v>
       </c>
       <c r="C293" t="s">
-        <v>984</v>
+        <v>1047</v>
       </c>
       <c r="D293" t="s">
-        <v>983</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>982</v>
+        <v>1045</v>
       </c>
       <c r="C294" t="s">
-        <v>981</v>
+        <v>1044</v>
       </c>
       <c r="D294" t="s">
-        <v>644</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>980</v>
+        <v>1042</v>
       </c>
       <c r="C295" t="s">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="D295" t="s">
-        <v>978</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>977</v>
+        <v>1039</v>
       </c>
       <c r="C296" t="s">
-        <v>976</v>
+        <v>1038</v>
       </c>
       <c r="D296" t="s">
-        <v>975</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>974</v>
+        <v>1036</v>
       </c>
       <c r="C297" t="s">
-        <v>973</v>
+        <v>929</v>
       </c>
       <c r="D297" t="s">
-        <v>972</v>
+        <v>895</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>971</v>
+        <v>1035</v>
       </c>
       <c r="C298" t="s">
-        <v>970</v>
+        <v>848</v>
       </c>
       <c r="D298" t="s">
-        <v>543</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>969</v>
+        <v>1033</v>
       </c>
       <c r="C299" t="s">
-        <v>968</v>
+        <v>1032</v>
       </c>
       <c r="D299" t="s">
-        <v>967</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>966</v>
+        <v>1030</v>
       </c>
       <c r="C300" t="s">
-        <v>965</v>
+        <v>1029</v>
       </c>
       <c r="D300" t="s">
-        <v>964</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>963</v>
+        <v>1209</v>
       </c>
       <c r="C301" t="s">
-        <v>962</v>
+        <v>1210</v>
       </c>
       <c r="D301" t="s">
-        <v>961</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>960</v>
+        <v>1027</v>
       </c>
       <c r="C302" t="s">
-        <v>959</v>
+        <v>1026</v>
       </c>
       <c r="D302" t="s">
-        <v>958</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>957</v>
+        <v>1214</v>
       </c>
       <c r="C303" t="s">
-        <v>779</v>
+        <v>1215</v>
       </c>
       <c r="D303" t="s">
-        <v>956</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>955</v>
+      <c r="B304" s="2" t="s">
+        <v>1024</v>
       </c>
       <c r="C304" t="s">
-        <v>954</v>
+        <v>1023</v>
       </c>
       <c r="D304" t="s">
-        <v>953</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>952</v>
+        <v>1021</v>
       </c>
       <c r="C305" t="s">
-        <v>951</v>
+        <v>1020</v>
       </c>
       <c r="D305" t="s">
-        <v>950</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>949</v>
+        <v>1018</v>
       </c>
       <c r="C306" t="s">
-        <v>948</v>
+        <v>1017</v>
       </c>
       <c r="D306" t="s">
-        <v>947</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>946</v>
+        <v>1212</v>
       </c>
       <c r="C307" t="s">
-        <v>945</v>
+        <v>1213</v>
       </c>
       <c r="D307" t="s">
-        <v>944</v>
+        <v>75</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>943</v>
+        <v>1015</v>
       </c>
       <c r="C308" t="s">
-        <v>942</v>
+        <v>1014</v>
       </c>
       <c r="D308" t="s">
-        <v>941</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>940</v>
+        <v>1012</v>
       </c>
       <c r="C309" t="s">
-        <v>939</v>
+        <v>1011</v>
       </c>
       <c r="D309" t="s">
-        <v>938</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>937</v>
+        <v>1009</v>
       </c>
       <c r="C310" t="s">
-        <v>936</v>
+        <v>1008</v>
       </c>
       <c r="D310" t="s">
-        <v>935</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>934</v>
+        <v>1006</v>
       </c>
       <c r="C311" t="s">
-        <v>933</v>
+        <v>1005</v>
       </c>
       <c r="D311" t="s">
-        <v>932</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>931</v>
+        <v>1003</v>
       </c>
       <c r="C312" t="s">
-        <v>930</v>
+        <v>1002</v>
       </c>
       <c r="D312" t="s">
-        <v>929</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
-        <v>928</v>
+      <c r="B313" s="2" t="s">
+        <v>1000</v>
       </c>
       <c r="C313" t="s">
-        <v>927</v>
+        <v>999</v>
       </c>
       <c r="D313" t="s">
-        <v>926</v>
+        <v>359</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>925</v>
+        <v>998</v>
       </c>
       <c r="C314" t="s">
-        <v>924</v>
+        <v>997</v>
       </c>
       <c r="D314" t="s">
-        <v>923</v>
+        <v>996</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>922</v>
+        <v>995</v>
       </c>
       <c r="C315" t="s">
-        <v>921</v>
+        <v>994</v>
       </c>
       <c r="D315" t="s">
-        <v>920</v>
+        <v>992</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>919</v>
+        <v>993</v>
       </c>
       <c r="C316" t="s">
-        <v>918</v>
+        <v>992</v>
       </c>
       <c r="D316" t="s">
-        <v>917</v>
+        <v>991</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>916</v>
+        <v>990</v>
       </c>
       <c r="C317" t="s">
-        <v>915</v>
+        <v>989</v>
       </c>
       <c r="D317" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>913</v>
+        <v>987</v>
       </c>
       <c r="C318" t="s">
-        <v>912</v>
+        <v>986</v>
       </c>
       <c r="D318" t="s">
-        <v>911</v>
+        <v>985</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>910</v>
+        <v>984</v>
       </c>
       <c r="C319" t="s">
-        <v>909</v>
+        <v>983</v>
       </c>
       <c r="D319" t="s">
-        <v>908</v>
+        <v>982</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>907</v>
+        <v>981</v>
       </c>
       <c r="C320" t="s">
-        <v>906</v>
+        <v>980</v>
       </c>
       <c r="D320" t="s">
-        <v>905</v>
+        <v>643</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>904</v>
+        <v>979</v>
       </c>
       <c r="C321" t="s">
-        <v>903</v>
+        <v>978</v>
       </c>
       <c r="D321" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>901</v>
+        <v>976</v>
       </c>
       <c r="C322" t="s">
-        <v>900</v>
+        <v>975</v>
       </c>
       <c r="D322" t="s">
-        <v>899</v>
+        <v>974</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B323" s="2" t="s">
-        <v>898</v>
+      <c r="B323" t="s">
+        <v>973</v>
       </c>
       <c r="C323" t="s">
-        <v>897</v>
+        <v>972</v>
       </c>
       <c r="D323" t="s">
-        <v>896</v>
+        <v>971</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>895</v>
+        <v>1217</v>
       </c>
       <c r="C324" t="s">
-        <v>894</v>
+        <v>1218</v>
       </c>
       <c r="D324" t="s">
-        <v>893</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>892</v>
+        <v>970</v>
       </c>
       <c r="C325" t="s">
-        <v>891</v>
+        <v>969</v>
       </c>
       <c r="D325" t="s">
-        <v>890</v>
+        <v>542</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>889</v>
+        <v>968</v>
       </c>
       <c r="C326" t="s">
-        <v>888</v>
+        <v>967</v>
       </c>
       <c r="D326" t="s">
-        <v>4</v>
+        <v>966</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>887</v>
+        <v>965</v>
       </c>
       <c r="C327" t="s">
-        <v>886</v>
+        <v>964</v>
       </c>
       <c r="D327" t="s">
-        <v>885</v>
+        <v>963</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>884</v>
+        <v>962</v>
       </c>
       <c r="C328" t="s">
-        <v>855</v>
+        <v>961</v>
       </c>
       <c r="D328" t="s">
-        <v>883</v>
+        <v>960</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>882</v>
+        <v>959</v>
       </c>
       <c r="C329" t="s">
-        <v>881</v>
+        <v>958</v>
       </c>
       <c r="D329" t="s">
-        <v>880</v>
+        <v>957</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>879</v>
+        <v>956</v>
       </c>
       <c r="C330" t="s">
-        <v>878</v>
+        <v>778</v>
       </c>
       <c r="D330" t="s">
-        <v>877</v>
+        <v>955</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>876</v>
+        <v>954</v>
       </c>
       <c r="C331" t="s">
-        <v>726</v>
+        <v>953</v>
       </c>
       <c r="D331" t="s">
-        <v>875</v>
+        <v>952</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>874</v>
+        <v>951</v>
       </c>
       <c r="C332" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="D332" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B333" s="2" t="s">
-        <v>871</v>
+      <c r="B333" t="s">
+        <v>948</v>
       </c>
       <c r="C333" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="D333" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="C334" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="D334" t="s">
-        <v>866</v>
+        <v>943</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>865</v>
+        <v>942</v>
       </c>
       <c r="C335" t="s">
-        <v>864</v>
+        <v>941</v>
       </c>
       <c r="D335" t="s">
-        <v>863</v>
+        <v>940</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>862</v>
+        <v>1219</v>
       </c>
       <c r="C336" t="s">
-        <v>861</v>
+        <v>1220</v>
       </c>
       <c r="D336" t="s">
-        <v>860</v>
+        <v>75</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>859</v>
+        <v>939</v>
       </c>
       <c r="C337" t="s">
-        <v>858</v>
+        <v>938</v>
       </c>
       <c r="D337" t="s">
-        <v>857</v>
+        <v>937</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>856</v>
+        <v>936</v>
       </c>
       <c r="C338" t="s">
-        <v>855</v>
+        <v>935</v>
       </c>
       <c r="D338" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>853</v>
+        <v>933</v>
       </c>
       <c r="C339" t="s">
-        <v>852</v>
+        <v>932</v>
       </c>
       <c r="D339" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>850</v>
+        <v>930</v>
       </c>
       <c r="C340" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="D340" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>847</v>
+        <v>1221</v>
       </c>
       <c r="C341" t="s">
-        <v>846</v>
+        <v>1222</v>
       </c>
       <c r="D341" t="s">
-        <v>845</v>
+        <v>75</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>844</v>
+        <v>927</v>
       </c>
       <c r="C342" t="s">
-        <v>843</v>
+        <v>926</v>
       </c>
       <c r="D342" t="s">
-        <v>842</v>
+        <v>925</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>841</v>
+        <v>924</v>
       </c>
       <c r="C343" t="s">
-        <v>840</v>
+        <v>923</v>
       </c>
       <c r="D343" t="s">
-        <v>839</v>
+        <v>922</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>838</v>
+        <v>921</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>920</v>
       </c>
       <c r="D344" t="s">
-        <v>837</v>
+        <v>919</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>836</v>
+        <v>918</v>
       </c>
       <c r="C345" t="s">
-        <v>835</v>
+        <v>917</v>
       </c>
       <c r="D345" t="s">
-        <v>834</v>
+        <v>916</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>833</v>
+        <v>915</v>
       </c>
       <c r="C346" t="s">
-        <v>832</v>
+        <v>914</v>
       </c>
       <c r="D346" t="s">
-        <v>831</v>
+        <v>913</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>830</v>
+        <v>1223</v>
       </c>
       <c r="C347" t="s">
-        <v>829</v>
+        <v>1224</v>
       </c>
       <c r="D347" t="s">
-        <v>828</v>
+        <v>75</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>827</v>
+        <v>912</v>
       </c>
       <c r="C348" t="s">
-        <v>826</v>
+        <v>911</v>
       </c>
       <c r="D348" t="s">
-        <v>825</v>
+        <v>910</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>824</v>
+        <v>909</v>
       </c>
       <c r="C349" t="s">
-        <v>823</v>
+        <v>908</v>
       </c>
       <c r="D349" t="s">
-        <v>822</v>
+        <v>907</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>821</v>
+        <v>906</v>
       </c>
       <c r="C350" t="s">
-        <v>820</v>
+        <v>905</v>
       </c>
       <c r="D350" t="s">
-        <v>819</v>
+        <v>904</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>818</v>
+        <v>903</v>
       </c>
       <c r="C351" t="s">
-        <v>817</v>
+        <v>902</v>
       </c>
       <c r="D351" t="s">
-        <v>676</v>
+        <v>901</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>816</v>
+        <v>900</v>
       </c>
       <c r="C352" t="s">
-        <v>815</v>
+        <v>899</v>
       </c>
       <c r="D352" t="s">
-        <v>814</v>
+        <v>898</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
-        <v>813</v>
+      <c r="B353" s="2" t="s">
+        <v>897</v>
       </c>
       <c r="C353" t="s">
-        <v>812</v>
+        <v>896</v>
       </c>
       <c r="D353" t="s">
-        <v>811</v>
+        <v>895</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>810</v>
+        <v>894</v>
       </c>
       <c r="C354" t="s">
-        <v>809</v>
+        <v>893</v>
       </c>
       <c r="D354" t="s">
-        <v>731</v>
+        <v>892</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>808</v>
+        <v>891</v>
       </c>
       <c r="C355" t="s">
-        <v>807</v>
+        <v>890</v>
       </c>
       <c r="D355" t="s">
-        <v>806</v>
+        <v>889</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>805</v>
+        <v>888</v>
       </c>
       <c r="C356" t="s">
-        <v>804</v>
+        <v>887</v>
       </c>
       <c r="D356" t="s">
-        <v>803</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>802</v>
+        <v>886</v>
       </c>
       <c r="C357" t="s">
-        <v>801</v>
+        <v>885</v>
       </c>
       <c r="D357" t="s">
-        <v>800</v>
+        <v>884</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>799</v>
+        <v>883</v>
       </c>
       <c r="C358" t="s">
-        <v>798</v>
+        <v>854</v>
       </c>
       <c r="D358" t="s">
-        <v>797</v>
+        <v>882</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>796</v>
+        <v>881</v>
       </c>
       <c r="C359" t="s">
-        <v>795</v>
+        <v>880</v>
       </c>
       <c r="D359" t="s">
-        <v>794</v>
+        <v>879</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="C360" t="s">
-        <v>792</v>
+        <v>877</v>
       </c>
       <c r="D360" t="s">
-        <v>791</v>
+        <v>876</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="C361" t="s">
-        <v>789</v>
+        <v>725</v>
       </c>
       <c r="D361" t="s">
-        <v>788</v>
+        <v>874</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>787</v>
+        <v>873</v>
       </c>
       <c r="C362" t="s">
-        <v>786</v>
+        <v>872</v>
       </c>
       <c r="D362" t="s">
-        <v>785</v>
+        <v>871</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>784</v>
+        <v>1225</v>
       </c>
       <c r="C363" t="s">
-        <v>783</v>
+        <v>1226</v>
       </c>
       <c r="D363" t="s">
-        <v>782</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B364" t="s">
-        <v>781</v>
+      <c r="B364" s="2" t="s">
+        <v>870</v>
       </c>
       <c r="C364" t="s">
-        <v>780</v>
+        <v>869</v>
       </c>
       <c r="D364" t="s">
-        <v>779</v>
+        <v>868</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="C365" t="s">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="D365" t="s">
-        <v>776</v>
+        <v>865</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>775</v>
+        <v>864</v>
       </c>
       <c r="C366" t="s">
-        <v>774</v>
+        <v>863</v>
       </c>
       <c r="D366" t="s">
-        <v>773</v>
+        <v>862</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="C367" t="s">
-        <v>771</v>
+        <v>860</v>
       </c>
       <c r="D367" t="s">
-        <v>770</v>
+        <v>859</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="C368" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="D368" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>766</v>
+        <v>855</v>
       </c>
       <c r="C369" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
       <c r="D369" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="C370" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="D370" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="C371" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="D371" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="C372" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
       <c r="D372" t="s">
-        <v>755</v>
+        <v>844</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
       <c r="C373" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="D373" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="C374" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="D374" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="C375" t="s">
-        <v>747</v>
+        <v>5</v>
       </c>
       <c r="D375" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="C376" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="D376" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="C377" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="D377" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="C378" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="D378" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="C379" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="D379" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="C380" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="D380" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="C381" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="D381" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="C382" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="D382" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="C383" t="s">
-        <v>723</v>
+        <v>814</v>
       </c>
       <c r="D383" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="C384" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="D384" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="C385" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="D385" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
       <c r="C386" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="D386" t="s">
-        <v>714</v>
+        <v>805</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="C387" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
       <c r="D387" t="s">
-        <v>711</v>
+        <v>802</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>710</v>
+        <v>801</v>
       </c>
       <c r="C388" t="s">
-        <v>709</v>
+        <v>800</v>
       </c>
       <c r="D388" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="C389" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="D389" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="C390" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="D390" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>702</v>
+        <v>792</v>
       </c>
       <c r="C391" t="s">
-        <v>701</v>
+        <v>791</v>
       </c>
       <c r="D391" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="C392" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="D392" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="C393" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="D393" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="C394" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="D394" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="C395" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D395" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="C396" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="D396" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="C397" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="D397" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="C398" t="s">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="D398" t="s">
-        <v>679</v>
+        <v>769</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="C399" t="s">
-        <v>677</v>
+        <v>767</v>
       </c>
       <c r="D399" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="C400" t="s">
-        <v>674</v>
+        <v>764</v>
       </c>
       <c r="D400" t="s">
-        <v>673</v>
+        <v>763</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>672</v>
+        <v>1227</v>
       </c>
       <c r="C401" t="s">
-        <v>671</v>
+        <v>1228</v>
       </c>
       <c r="D401" t="s">
-        <v>670</v>
+        <v>75</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>669</v>
+        <v>762</v>
       </c>
       <c r="C402" t="s">
-        <v>668</v>
+        <v>761</v>
       </c>
       <c r="D402" t="s">
-        <v>667</v>
+        <v>760</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
+        <v>759</v>
+      </c>
+      <c r="C403" t="s">
+        <v>758</v>
+      </c>
+      <c r="D403" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>756</v>
+      </c>
+      <c r="C404" t="s">
+        <v>755</v>
+      </c>
+      <c r="D404" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>753</v>
+      </c>
+      <c r="C405" t="s">
+        <v>752</v>
+      </c>
+      <c r="D405" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>750</v>
+      </c>
+      <c r="C406" t="s">
+        <v>749</v>
+      </c>
+      <c r="D406" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>747</v>
+      </c>
+      <c r="C407" t="s">
+        <v>746</v>
+      </c>
+      <c r="D407" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>744</v>
+      </c>
+      <c r="C408" t="s">
+        <v>743</v>
+      </c>
+      <c r="D408" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>741</v>
+      </c>
+      <c r="C409" t="s">
+        <v>740</v>
+      </c>
+      <c r="D409" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>738</v>
+      </c>
+      <c r="C410" t="s">
+        <v>737</v>
+      </c>
+      <c r="D410" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>735</v>
+      </c>
+      <c r="C411" t="s">
+        <v>734</v>
+      </c>
+      <c r="D411" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D412" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>732</v>
+      </c>
+      <c r="C413" t="s">
+        <v>731</v>
+      </c>
+      <c r="D413" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>729</v>
+      </c>
+      <c r="C414" t="s">
+        <v>728</v>
+      </c>
+      <c r="D414" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>726</v>
+      </c>
+      <c r="C415" t="s">
+        <v>725</v>
+      </c>
+      <c r="D415" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>723</v>
+      </c>
+      <c r="C416" t="s">
+        <v>722</v>
+      </c>
+      <c r="D416" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>721</v>
+      </c>
+      <c r="C417" t="s">
+        <v>720</v>
+      </c>
+      <c r="D417" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>718</v>
+      </c>
+      <c r="C418" t="s">
+        <v>717</v>
+      </c>
+      <c r="D418" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>715</v>
+      </c>
+      <c r="C419" t="s">
+        <v>714</v>
+      </c>
+      <c r="D419" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>712</v>
+      </c>
+      <c r="C420" t="s">
+        <v>711</v>
+      </c>
+      <c r="D420" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D421" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>709</v>
+      </c>
+      <c r="C422" t="s">
+        <v>708</v>
+      </c>
+      <c r="D422" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>707</v>
+      </c>
+      <c r="C423" t="s">
+        <v>706</v>
+      </c>
+      <c r="D423" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>704</v>
+      </c>
+      <c r="C424" t="s">
+        <v>703</v>
+      </c>
+      <c r="D424" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>701</v>
+      </c>
+      <c r="C425" t="s">
+        <v>700</v>
+      </c>
+      <c r="D425" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>698</v>
+      </c>
+      <c r="C426" t="s">
+        <v>697</v>
+      </c>
+      <c r="D426" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D427" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>695</v>
+      </c>
+      <c r="C428" t="s">
+        <v>694</v>
+      </c>
+      <c r="D428" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>692</v>
+      </c>
+      <c r="C429" t="s">
+        <v>691</v>
+      </c>
+      <c r="D429" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>689</v>
+      </c>
+      <c r="C430" t="s">
+        <v>688</v>
+      </c>
+      <c r="D430" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>686</v>
+      </c>
+      <c r="C431" t="s">
+        <v>685</v>
+      </c>
+      <c r="D431" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>683</v>
+      </c>
+      <c r="C432" t="s">
+        <v>682</v>
+      </c>
+      <c r="D432" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>680</v>
+      </c>
+      <c r="C433" t="s">
+        <v>679</v>
+      </c>
+      <c r="D433" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
+        <v>677</v>
+      </c>
+      <c r="C434" t="s">
+        <v>676</v>
+      </c>
+      <c r="D434" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>674</v>
+      </c>
+      <c r="C435" t="s">
+        <v>673</v>
+      </c>
+      <c r="D435" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>671</v>
+      </c>
+      <c r="C436" t="s">
+        <v>670</v>
+      </c>
+      <c r="D436" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>668</v>
+      </c>
+      <c r="C437" t="s">
+        <v>667</v>
+      </c>
+      <c r="D437" t="s">
         <v>666</v>
       </c>
-      <c r="C403" t="s">
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
         <v>665</v>
       </c>
-      <c r="D403" t="s">
+      <c r="C438" t="s">
         <v>664</v>
       </c>
+      <c r="D438" t="s">
+        <v>663</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B49">
+  <conditionalFormatting sqref="B2:B51">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587355E-679A-4211-B2C6-3773E2437975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC9D80-BE45-4B12-9235-9D9B0F2DC486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1236">
   <si>
     <t>japanese</t>
   </si>
@@ -3730,6 +3730,9 @@
   </si>
   <si>
     <t>bộ thực</t>
+  </si>
+  <si>
+    <t>受</t>
   </si>
 </sst>
 </file>
@@ -4083,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>224</v>
+        <v>1235</v>
       </c>
       <c r="C81" t="s">
         <v>225</v>

--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC9D80-BE45-4B12-9235-9D9B0F2DC486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70C652-1241-4800-8B67-EBB838202D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1237">
   <si>
     <t>japanese</t>
   </si>
@@ -3733,6 +3733,9 @@
   </si>
   <si>
     <t>受</t>
+  </si>
+  <si>
+    <t>hội</t>
   </si>
 </sst>
 </file>
@@ -4086,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,7 +4363,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>1236</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>

--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70C652-1241-4800-8B67-EBB838202D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541444B6-C1DF-445C-8563-8A4F11B18725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1238">
   <si>
     <t>japanese</t>
   </si>
@@ -2067,9 +2067,6 @@
     <t>dịch</t>
   </si>
   <si>
-    <t>訳</t>
-  </si>
-  <si>
     <t>ngựa</t>
   </si>
   <si>
@@ -3736,6 +3733,12 @@
   </si>
   <si>
     <t>hội</t>
+  </si>
+  <si>
+    <t>dụng cụ</t>
+  </si>
+  <si>
+    <t>駅</t>
   </si>
 </sst>
 </file>
@@ -4089,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="I439" sqref="I439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +4118,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4363,7 +4366,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -4371,7 +4374,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -4547,10 +4550,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C41" t="s">
         <v>1157</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1158</v>
       </c>
       <c r="D41" t="s">
         <v>75</v>
@@ -4624,13 +4627,13 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C48" t="s">
         <v>1159</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1160</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -4734,10 +4737,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C58" t="s">
         <v>1162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1163</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -4822,10 +4825,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C66" t="s">
         <v>1164</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1165</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
@@ -4954,10 +4957,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C78" t="s">
         <v>1166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1167</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C81" t="s">
         <v>225</v>
@@ -5273,10 +5276,10 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C107" t="s">
         <v>1168</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1169</v>
       </c>
       <c r="D107" t="s">
         <v>75</v>
@@ -5537,10 +5540,10 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C131" t="s">
         <v>1170</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1171</v>
       </c>
       <c r="D131" t="s">
         <v>75</v>
@@ -5691,10 +5694,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C145" t="s">
         <v>1172</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1173</v>
       </c>
       <c r="D145" t="s">
         <v>75</v>
@@ -5856,10 +5859,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C160" t="s">
         <v>1174</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1175</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -5922,10 +5925,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C166" t="s">
         <v>1176</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1177</v>
       </c>
       <c r="D166" t="s">
         <v>75</v>
@@ -6021,10 +6024,10 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C175" t="s">
         <v>1178</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1179</v>
       </c>
       <c r="D175" t="s">
         <v>75</v>
@@ -6043,10 +6046,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C177" t="s">
         <v>1180</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1181</v>
       </c>
       <c r="D177" t="s">
         <v>75</v>
@@ -6098,10 +6101,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C182" t="s">
         <v>1182</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1183</v>
       </c>
       <c r="D182" t="s">
         <v>75</v>
@@ -6186,10 +6189,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C190" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D190" t="s">
         <v>75</v>
@@ -6307,10 +6310,10 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C201" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D201" t="s">
         <v>75</v>
@@ -6340,10 +6343,10 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C204" t="s">
         <v>1188</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1189</v>
       </c>
       <c r="D204" t="s">
         <v>75</v>
@@ -6362,10 +6365,10 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C206" t="s">
         <v>1190</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1191</v>
       </c>
       <c r="D206" t="s">
         <v>75</v>
@@ -6527,10 +6530,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C221" t="s">
         <v>1192</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1193</v>
       </c>
       <c r="D221" t="s">
         <v>75</v>
@@ -6604,10 +6607,10 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C228" t="s">
         <v>1194</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1195</v>
       </c>
       <c r="D228" t="s">
         <v>75</v>
@@ -6868,296 +6871,296 @@
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C252" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D252" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C253" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D253" t="s">
         <v>1196</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C254" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D254" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C255" t="s">
         <v>1198</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>1199</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C256" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D256" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C257" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D257" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C258" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D258" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C259" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D259" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C260" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D260" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C261" t="s">
         <v>1201</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1202</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C262" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D262" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C263" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D263" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C264" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D264" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C265" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D265" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C266" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D266" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C267" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D267" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C268" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D268" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C269" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D269" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C270" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D270" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C271" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D271" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C272" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D272" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C273" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D273" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C274" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D274" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C275" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D275" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C276" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D276" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C277" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D277" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C278" t="s">
         <v>1204</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1205</v>
       </c>
       <c r="D278" t="s">
         <v>75</v>
@@ -7165,318 +7168,318 @@
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C279" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D279" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C280" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D280" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C281" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D281" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C282" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D282" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C283" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D283" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C284" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D284" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C285" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D285" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D286" t="s">
         <v>1206</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C287" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D287" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C288" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D288" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C289" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D289" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C290" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D290" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C291" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D291" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C292" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D292" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C293" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D293" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C294" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D294" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C295" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D295" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C296" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D296" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C297" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D297" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C298" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D298" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C299" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D299" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C300" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D300" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C301" t="s">
         <v>1209</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>1210</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C302" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D302" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C303" t="s">
         <v>1214</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>1215</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C304" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D304" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C305" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D305" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C306" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D306" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C307" t="s">
         <v>1212</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1213</v>
       </c>
       <c r="D307" t="s">
         <v>75</v>
@@ -7484,65 +7487,65 @@
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C308" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D308" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C309" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D309" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C310" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D310" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C311" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D311" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C312" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D312" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C313" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D313" t="s">
         <v>359</v>
@@ -7550,76 +7553,76 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C314" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D314" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C315" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D315" t="s">
-        <v>992</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C316" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D316" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C317" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D317" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C318" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D318" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C319" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D319" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C320" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D320" t="s">
         <v>643</v>
@@ -7627,43 +7630,43 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C321" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D321" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C322" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D322" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C323" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D323" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C324" t="s">
         <v>1217</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1218</v>
       </c>
       <c r="D324" t="s">
         <v>75</v>
@@ -7671,10 +7674,10 @@
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C325" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D325" t="s">
         <v>542</v>
@@ -7682,120 +7685,120 @@
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C326" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D326" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C327" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D327" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C328" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D328" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C329" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D329" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C330" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D330" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C331" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D331" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C332" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D332" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C333" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D333" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C334" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D334" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C335" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D335" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C336" t="s">
         <v>1219</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1220</v>
       </c>
       <c r="D336" t="s">
         <v>75</v>
@@ -7803,54 +7806,54 @@
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C337" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D337" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C338" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D338" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C339" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D339" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C340" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D340" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C341" t="s">
         <v>1221</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1222</v>
       </c>
       <c r="D341" t="s">
         <v>75</v>
@@ -7858,65 +7861,65 @@
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C342" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D342" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C343" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D343" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C344" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D344" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C345" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D345" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C346" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D346" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C347" t="s">
         <v>1223</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1224</v>
       </c>
       <c r="D347" t="s">
         <v>75</v>
@@ -7924,98 +7927,98 @@
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C348" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D348" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C349" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D349" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C350" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D350" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C351" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D351" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C352" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D352" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C353" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D353" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C354" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D354" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C355" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D355" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C356" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D356" t="s">
         <v>4</v>
@@ -8023,76 +8026,76 @@
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C357" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D357" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C358" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D358" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C359" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D359" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C360" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D360" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C361" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D361" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C362" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D362" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C363" t="s">
         <v>1225</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1226</v>
       </c>
       <c r="D363" t="s">
         <v>75</v>
@@ -8100,208 +8103,208 @@
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C364" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D364" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C365" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D365" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C366" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D366" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C367" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D367" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C368" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D368" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C369" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D369" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C370" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D370" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C371" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D371" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C372" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D372" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C373" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D373" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C374" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D374" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
       </c>
       <c r="D375" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C376" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D376" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C377" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D377" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C378" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D378" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C379" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D379" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C380" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D380" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C381" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D381" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C382" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D382" t="s">
         <v>675</v>
@@ -8309,208 +8312,208 @@
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C383" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D383" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C384" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D384" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C385" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D385" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C386" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D386" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C387" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D387" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C388" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D388" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C389" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D389" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C390" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D390" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C391" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D391" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C392" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D392" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C393" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D393" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C394" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D394" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C395" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D395" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C396" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D396" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C397" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D397" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C398" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D398" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C399" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D399" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C400" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D400" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C401" t="s">
         <v>1227</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1228</v>
       </c>
       <c r="D401" t="s">
         <v>75</v>
@@ -8518,120 +8521,120 @@
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C402" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D402" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C403" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D403" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C404" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D404" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C405" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D405" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C406" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D406" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C407" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D407" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C408" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D408" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C409" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D409" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C410" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D410" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C411" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D411" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C412" t="s">
         <v>1229</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1230</v>
       </c>
       <c r="D412" t="s">
         <v>75</v>
@@ -8639,98 +8642,98 @@
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C413" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D413" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C414" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D414" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C415" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D415" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C416" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D416" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C417" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D417" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C418" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D418" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C419" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D419" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C420" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D420" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C421" t="s">
         <v>1231</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1232</v>
       </c>
       <c r="D421" t="s">
         <v>75</v>
@@ -8738,65 +8741,65 @@
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C422" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D422" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C423" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D423" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C424" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D424" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C425" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D425" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C426" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D426" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C427" t="s">
         <v>1233</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1234</v>
       </c>
       <c r="D427" t="s">
         <v>75</v>
@@ -8804,62 +8807,62 @@
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C428" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D428" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C429" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D429" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C430" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D430" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C431" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D431" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C432" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D432" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>680</v>
+        <v>1237</v>
       </c>
       <c r="C433" t="s">
         <v>679</v>

--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541444B6-C1DF-445C-8563-8A4F11B18725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC5F99-9793-411C-90B0-1055C89156F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1239">
   <si>
     <t>japanese</t>
   </si>
@@ -3108,9 +3108,6 @@
     <t>火</t>
   </si>
   <si>
-    <t>bến c ảng</t>
-  </si>
-  <si>
     <t>cảng</t>
   </si>
   <si>
@@ -3567,9 +3564,6 @@
     <t>彳</t>
   </si>
   <si>
-    <t>BÔ sách</t>
-  </si>
-  <si>
     <t>艹</t>
   </si>
   <si>
@@ -3739,6 +3733,15 @@
   </si>
   <si>
     <t>駅</t>
+  </si>
+  <si>
+    <t>trượng phu (bền)</t>
+  </si>
+  <si>
+    <t>Bộ sách</t>
+  </si>
+  <si>
+    <t>bến cảng</t>
   </si>
 </sst>
 </file>
@@ -4092,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="I439" sqref="I439"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="I301" sqref="I301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,7 +4121,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4182,7 +4185,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,7 +4369,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -4374,7 +4377,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -4550,10 +4553,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C41" t="s">
         <v>1156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1157</v>
       </c>
       <c r="D41" t="s">
         <v>75</v>
@@ -4627,13 +4630,13 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C48" t="s">
         <v>1158</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1159</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -4737,10 +4740,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C58" t="s">
         <v>1161</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1162</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -4825,10 +4828,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C66" t="s">
         <v>1163</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1164</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
@@ -4957,10 +4960,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C78" t="s">
         <v>1165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1166</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -4990,7 +4993,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C81" t="s">
         <v>225</v>
@@ -5276,10 +5279,10 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C107" t="s">
         <v>1167</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1168</v>
       </c>
       <c r="D107" t="s">
         <v>75</v>
@@ -5540,10 +5543,10 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C131" t="s">
         <v>1169</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1170</v>
       </c>
       <c r="D131" t="s">
         <v>75</v>
@@ -5694,10 +5697,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C145" t="s">
         <v>1171</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1172</v>
       </c>
       <c r="D145" t="s">
         <v>75</v>
@@ -5859,10 +5862,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C160" t="s">
         <v>1173</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1174</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -5925,10 +5928,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C166" t="s">
         <v>1175</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1176</v>
       </c>
       <c r="D166" t="s">
         <v>75</v>
@@ -6024,10 +6027,10 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C175" t="s">
         <v>1177</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1178</v>
       </c>
       <c r="D175" t="s">
         <v>75</v>
@@ -6046,10 +6049,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C177" t="s">
-        <v>1180</v>
+        <v>1237</v>
       </c>
       <c r="D177" t="s">
         <v>75</v>
@@ -6101,10 +6104,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C182" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D182" t="s">
         <v>75</v>
@@ -6189,10 +6192,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C190" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D190" t="s">
         <v>75</v>
@@ -6310,10 +6313,10 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C201" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D201" t="s">
         <v>75</v>
@@ -6343,10 +6346,10 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C204" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D204" t="s">
         <v>75</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C206" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D206" t="s">
         <v>75</v>
@@ -6530,10 +6533,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C221" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D221" t="s">
         <v>75</v>
@@ -6607,10 +6610,10 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C228" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D228" t="s">
         <v>75</v>
@@ -6871,296 +6874,296 @@
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C252" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D252" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C253" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D253" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C254" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D254" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D255" t="s">
         <v>1197</v>
-      </c>
-      <c r="C255" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C256" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D256" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C257" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D257" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C258" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D258" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C259" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D259" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C260" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D260" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D261" t="s">
         <v>1200</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C262" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D262" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C263" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D263" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C264" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D264" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C265" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D265" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C266" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D266" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C267" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D267" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C268" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D268" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C269" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D269" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C270" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D270" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C271" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D271" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C272" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D272" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C273" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D273" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C274" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D274" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C275" t="s">
         <v>898</v>
       </c>
       <c r="D275" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C276" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D276" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C277" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D277" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C278" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D278" t="s">
         <v>75</v>
@@ -7168,65 +7171,65 @@
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C279" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D279" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C280" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D280" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C281" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D281" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C282" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D282" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C283" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D283" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C284" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D284" t="s">
         <v>918</v>
@@ -7234,139 +7237,139 @@
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C285" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D285" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C286" t="s">
         <v>1205</v>
       </c>
-      <c r="C286" t="s">
-        <v>1207</v>
-      </c>
       <c r="D286" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C287" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D287" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C288" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D288" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C289" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D289" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C290" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D290" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C291" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D291" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C292" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D292" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C293" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D293" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C294" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D294" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C295" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D295" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C296" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D296" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C297" t="s">
         <v>928</v>
@@ -7377,46 +7380,46 @@
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C298" t="s">
         <v>847</v>
       </c>
       <c r="D298" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C299" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D299" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C300" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D300" t="s">
-        <v>1027</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D301" t="s">
         <v>1208</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
@@ -7432,13 +7435,13 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D303" t="s">
         <v>1213</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
@@ -7476,10 +7479,10 @@
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C307" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D307" t="s">
         <v>75</v>
@@ -7570,7 +7573,7 @@
         <v>993</v>
       </c>
       <c r="D315" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
@@ -7663,10 +7666,10 @@
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C324" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D324" t="s">
         <v>75</v>
@@ -7795,10 +7798,10 @@
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C336" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D336" t="s">
         <v>75</v>
@@ -7850,10 +7853,10 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C341" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D341" t="s">
         <v>75</v>
@@ -7916,10 +7919,10 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C347" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D347" t="s">
         <v>75</v>
@@ -8092,10 +8095,10 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C363" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D363" t="s">
         <v>75</v>
@@ -8510,10 +8513,10 @@
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C401" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D401" t="s">
         <v>75</v>
@@ -8631,10 +8634,10 @@
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C412" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D412" t="s">
         <v>75</v>
@@ -8730,10 +8733,10 @@
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C421" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D421" t="s">
         <v>75</v>
@@ -8796,10 +8799,10 @@
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C427" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D427" t="s">
         <v>75</v>
@@ -8862,7 +8865,7 @@
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C433" t="s">
         <v>679</v>

--- a/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
+++ b/Review_Kanji_V2/Lesson1/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Review_Kanji_V2\Lesson1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AC5F99-9793-411C-90B0-1055C89156F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED986833-A9B3-47BA-B43D-5B6038258130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1290" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3486,9 +3486,6 @@
     <t>曜</t>
   </si>
   <si>
-    <t>総まとめー</t>
-  </si>
-  <si>
     <t>亻</t>
   </si>
   <si>
@@ -3742,6 +3739,9 @@
   </si>
   <si>
     <t>bến cảng</t>
+  </si>
+  <si>
+    <t>第ー課</t>
   </si>
 </sst>
 </file>
@@ -4095,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="I301" sqref="I301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1153</v>
+        <v>1238</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4185,7 +4185,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,7 +4369,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C41" t="s">
         <v>1155</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1156</v>
       </c>
       <c r="D41" t="s">
         <v>75</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C48" t="s">
         <v>1157</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1158</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -4740,10 +4740,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C58" t="s">
         <v>1160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1161</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C66" t="s">
         <v>1162</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1163</v>
       </c>
       <c r="D66" t="s">
         <v>75</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C78" t="s">
         <v>1164</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1165</v>
       </c>
       <c r="D78" t="s">
         <v>75</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C81" t="s">
         <v>225</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C107" t="s">
         <v>1166</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1167</v>
       </c>
       <c r="D107" t="s">
         <v>75</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C131" t="s">
         <v>1168</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1169</v>
       </c>
       <c r="D131" t="s">
         <v>75</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C145" t="s">
         <v>1170</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1171</v>
       </c>
       <c r="D145" t="s">
         <v>75</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C160" t="s">
         <v>1172</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1173</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C166" t="s">
         <v>1174</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1175</v>
       </c>
       <c r="D166" t="s">
         <v>75</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C175" t="s">
         <v>1176</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1177</v>
       </c>
       <c r="D175" t="s">
         <v>75</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C177" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D177" t="s">
         <v>75</v>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C182" t="s">
         <v>1179</v>
-      </c>
-      <c r="C182" t="s">
-        <v>1180</v>
       </c>
       <c r="D182" t="s">
         <v>75</v>
@@ -6192,10 +6192,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C190" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D190" t="s">
         <v>75</v>
@@ -6313,10 +6313,10 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C201" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D201" t="s">
         <v>75</v>
@@ -6346,10 +6346,10 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C204" t="s">
         <v>1185</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1186</v>
       </c>
       <c r="D204" t="s">
         <v>75</v>
@@ -6368,10 +6368,10 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C206" t="s">
         <v>1187</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1188</v>
       </c>
       <c r="D206" t="s">
         <v>75</v>
@@ -6533,10 +6533,10 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C221" t="s">
         <v>1189</v>
-      </c>
-      <c r="C221" t="s">
-        <v>1190</v>
       </c>
       <c r="D221" t="s">
         <v>75</v>
@@ -6610,10 +6610,10 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C228" t="s">
         <v>1191</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1192</v>
       </c>
       <c r="D228" t="s">
         <v>75</v>
@@ -6888,10 +6888,10 @@
         <v>1149</v>
       </c>
       <c r="C253" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D253" t="s">
         <v>1193</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
@@ -6907,13 +6907,13 @@
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C255" t="s">
         <v>1195</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>1196</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
@@ -6973,13 +6973,13 @@
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C261" t="s">
         <v>1198</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1199</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
@@ -7160,10 +7160,10 @@
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C278" t="s">
         <v>1201</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1202</v>
       </c>
       <c r="D278" t="s">
         <v>75</v>
@@ -7248,13 +7248,13 @@
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D286" t="s">
         <v>1203</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
@@ -7408,18 +7408,18 @@
         <v>1027</v>
       </c>
       <c r="D300" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C301" t="s">
         <v>1206</v>
       </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>1207</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
@@ -7435,13 +7435,13 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C303" t="s">
         <v>1211</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>1212</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
@@ -7479,10 +7479,10 @@
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C307" t="s">
         <v>1209</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1210</v>
       </c>
       <c r="D307" t="s">
         <v>75</v>
@@ -7573,7 +7573,7 @@
         <v>993</v>
       </c>
       <c r="D315" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
@@ -7666,10 +7666,10 @@
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C324" t="s">
         <v>1214</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1215</v>
       </c>
       <c r="D324" t="s">
         <v>75</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C336" t="s">
         <v>1216</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1217</v>
       </c>
       <c r="D336" t="s">
         <v>75</v>
@@ -7853,10 +7853,10 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C341" t="s">
         <v>1218</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1219</v>
       </c>
       <c r="D341" t="s">
         <v>75</v>
@@ -7919,10 +7919,10 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C347" t="s">
         <v>1220</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1221</v>
       </c>
       <c r="D347" t="s">
         <v>75</v>
@@ -8095,10 +8095,10 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C363" t="s">
         <v>1222</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1223</v>
       </c>
       <c r="D363" t="s">
         <v>75</v>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C401" t="s">
         <v>1224</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1225</v>
       </c>
       <c r="D401" t="s">
         <v>75</v>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C412" t="s">
         <v>1226</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1227</v>
       </c>
       <c r="D412" t="s">
         <v>75</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C421" t="s">
         <v>1228</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1229</v>
       </c>
       <c r="D421" t="s">
         <v>75</v>
@@ -8799,10 +8799,10 @@
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C427" t="s">
         <v>1230</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1231</v>
       </c>
       <c r="D427" t="s">
         <v>75</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C433" t="s">
         <v>679</v>
